--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NIA_tool_json_postprocess\data\NIA_output\HAND_GESTURE\20231121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0816F6FE-3D04-47D0-AA2B-3669C51A6E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3D055-E0A0-4C32-B11F-41FBAD6E7FD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A03AD295-6ABB-40E4-B880-6B75D605FD34}"/>
   </bookViews>
@@ -1750,7 +1750,7 @@
   <dimension ref="A1:M453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1960,8 +1960,12 @@
       <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="11">
+        <v>175</v>
+      </c>
+      <c r="G7" s="11">
+        <v>19</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="11"/>

--- a/subject_info.xlsx
+++ b/subject_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NIA_tool_json_postprocess\data\NIA_output\HAND_GESTURE\20231121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HOnnotate_OXR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3D055-E0A0-4C32-B11F-41FBAD6E7FD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE4DF4-7BBB-46A1-BE7D-402CBB66B73E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A03AD295-6ABB-40E4-B880-6B75D605FD34}"/>
   </bookViews>
@@ -1750,7 +1750,7 @@
   <dimension ref="A1:M453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1961,10 +1961,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G7" s="11">
-        <v>19</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1984,7 +1984,9 @@
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>25</v>
+      </c>
       <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
@@ -3769,7 +3771,9 @@
       <c r="F55" s="11">
         <v>165</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11">
+        <v>17</v>
+      </c>
       <c r="H55" s="11" t="s">
         <v>208</v>
       </c>
